--- a/biology/Botanique/Dryandra/Dryandra.xlsx
+++ b/biology/Botanique/Dryandra/Dryandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dryandra est un genre de plante à fleurs de la famille des Proteaceae qui n'est plus reconnu depuis 2007 par les cladistes. En effet, selon des études moléculaires, sa reconnaissance aurait rendu paraphylétique le genre Banksia. Il a donc été abaissé au rang de série du genre Banksia : Banksia ser. Dryandra. Le genre est malgré tout toujours reconnu par les évolutionnistes.
 Le genre Dryandra comprend 94 espèces de buissons ou de petits arbres que l'on trouve dans le sud-ouest de l'Australie.
